--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_260__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_260__Reeval_LHS_Modell_1.3.xlsx
@@ -5888,7 +5888,7 @@
                   <c:v>60.49873352050781</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.67205047607422</c:v>
+                  <c:v>67.67204284667969</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>66.71504211425781</c:v>
@@ -5897,7 +5897,7 @@
                   <c:v>65.96691131591797</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.478271484375</c:v>
+                  <c:v>67.47826385498047</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>69.67396545410156</c:v>
@@ -5906,7 +5906,7 @@
                   <c:v>68.63751983642578</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67.35863494873047</c:v>
+                  <c:v>67.358642578125</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>69.42494201660156</c:v>
@@ -5915,19 +5915,19 @@
                   <c:v>67.65772247314453</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68.98762512207031</c:v>
+                  <c:v>68.98763275146484</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>69.51984405517578</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66.37445831298828</c:v>
+                  <c:v>66.37446594238281</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>66.59906005859375</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67.32460021972656</c:v>
+                  <c:v>67.32460784912109</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>66.84521484375</c:v>
@@ -5948,25 +5948,25 @@
                   <c:v>63.30283355712891</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>72.97519683837891</c:v>
+                  <c:v>72.97518157958984</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>70.56916046142578</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>66.87621307373047</c:v>
+                  <c:v>66.87619781494141</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>63.75777435302734</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>62.12483215332031</c:v>
+                  <c:v>62.12483978271484</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>70.23373413085938</c:v>
+                  <c:v>70.23374176025391</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>67.72051239013672</c:v>
+                  <c:v>67.72050476074219</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>67.16411590576172</c:v>
@@ -5978,7 +5978,7 @@
                   <c:v>70.88816833496094</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>65.84420013427734</c:v>
+                  <c:v>65.84419250488281</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>67.95043182373047</c:v>
@@ -5993,7 +5993,7 @@
                   <c:v>62.84141540527344</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>72.94097900390625</c:v>
+                  <c:v>72.94098663330078</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>58.64241027832031</c:v>
@@ -6005,16 +6005,16 @@
                   <c:v>67.44936370849609</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>73.52214050292969</c:v>
+                  <c:v>73.52213287353516</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>68.69011688232422</c:v>
+                  <c:v>68.69010925292969</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>70.70166015625</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>68.34002685546875</c:v>
+                  <c:v>68.34001922607422</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>67.19923400878906</c:v>
@@ -6029,10 +6029,10 @@
                   <c:v>70.45327758789062</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>66.75441741943359</c:v>
+                  <c:v>66.75442504882812</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>70.87403106689453</c:v>
+                  <c:v>70.8740234375</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>72.60911560058594</c:v>
@@ -6044,7 +6044,7 @@
                   <c:v>70.02761840820312</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>67.00273132324219</c:v>
+                  <c:v>67.00273895263672</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>66.70449829101562</c:v>
@@ -6056,7 +6056,7 @@
                   <c:v>71.75319671630859</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>71.05686187744141</c:v>
+                  <c:v>71.05686950683594</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>68.76401519775391</c:v>
@@ -6068,13 +6068,13 @@
                   <c:v>65.86994934082031</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>67.01424407958984</c:v>
+                  <c:v>67.01423645019531</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>68.04007720947266</c:v>
+                  <c:v>68.04006958007812</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>66.40995025634766</c:v>
+                  <c:v>66.40994262695312</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>65.56925201416016</c:v>
@@ -6092,19 +6092,19 @@
                   <c:v>68.82854461669922</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>68.68858337402344</c:v>
+                  <c:v>68.68856811523438</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>68.46106719970703</c:v>
+                  <c:v>68.46107482910156</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>70.63436126708984</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>66.08319091796875</c:v>
+                  <c:v>66.08318328857422</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>59.88030242919922</c:v>
+                  <c:v>59.88031005859375</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>70.25637054443359</c:v>
@@ -6113,10 +6113,10 @@
                   <c:v>67.05834197998047</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>69.83849334716797</c:v>
+                  <c:v>69.83848571777344</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>69.79432678222656</c:v>
+                  <c:v>69.79431915283203</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>67.43408203125</c:v>
@@ -6137,10 +6137,10 @@
                   <c:v>59.85484313964844</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>72.08502197265625</c:v>
+                  <c:v>72.08501434326172</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>66.23287200927734</c:v>
+                  <c:v>66.23287963867188</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>70.22268676757812</c:v>
@@ -7019,7 +7019,7 @@
         <v>87.6867</v>
       </c>
       <c r="F7">
-        <v>67.67205047607422</v>
+        <v>67.67204284667969</v>
       </c>
       <c r="G7">
         <v>127</v>
@@ -7091,7 +7091,7 @@
         <v>57.1515</v>
       </c>
       <c r="F10">
-        <v>67.478271484375</v>
+        <v>67.47826385498047</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>50.4651</v>
       </c>
       <c r="F13">
-        <v>67.35863494873047</v>
+        <v>67.358642578125</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>70.16200000000001</v>
       </c>
       <c r="F16">
-        <v>68.98762512207031</v>
+        <v>68.98763275146484</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>87.605</v>
       </c>
       <c r="F18">
-        <v>66.37445831298828</v>
+        <v>66.37446594238281</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>49.1802</v>
       </c>
       <c r="F20">
-        <v>67.32460021972656</v>
+        <v>67.32460784912109</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>36.6299</v>
       </c>
       <c r="F27">
-        <v>72.97519683837891</v>
+        <v>72.97518157958984</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>75.6429</v>
       </c>
       <c r="F29">
-        <v>66.87621307373047</v>
+        <v>66.87619781494141</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>73.812</v>
       </c>
       <c r="F31">
-        <v>62.12483215332031</v>
+        <v>62.12483978271484</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>70.952</v>
       </c>
       <c r="F32">
-        <v>70.23373413085938</v>
+        <v>70.23374176025391</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>55.7118</v>
       </c>
       <c r="F33">
-        <v>67.72051239013672</v>
+        <v>67.72050476074219</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>90.173</v>
       </c>
       <c r="F37">
-        <v>65.84420013427734</v>
+        <v>65.84419250488281</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>66.3913</v>
       </c>
       <c r="F42">
-        <v>72.94097900390625</v>
+        <v>72.94098663330078</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>54.5106</v>
       </c>
       <c r="F46">
-        <v>73.52214050292969</v>
+        <v>73.52213287353516</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>60.7068</v>
       </c>
       <c r="F47">
-        <v>68.69011688232422</v>
+        <v>68.69010925292969</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>53.5828</v>
       </c>
       <c r="F49">
-        <v>68.34002685546875</v>
+        <v>68.34001922607422</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>44.0149</v>
       </c>
       <c r="F54">
-        <v>66.75441741943359</v>
+        <v>66.75442504882812</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>52.6674</v>
       </c>
       <c r="F55">
-        <v>70.87403106689453</v>
+        <v>70.8740234375</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>54.8399</v>
       </c>
       <c r="F59">
-        <v>67.00273132324219</v>
+        <v>67.00273895263672</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>43.8297</v>
       </c>
       <c r="F63">
-        <v>71.05686187744141</v>
+        <v>71.05686950683594</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>91.9449</v>
       </c>
       <c r="F67">
-        <v>67.01424407958984</v>
+        <v>67.01423645019531</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>72.51430000000001</v>
       </c>
       <c r="F68">
-        <v>68.04007720947266</v>
+        <v>68.04006958007812</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>69.7713</v>
       </c>
       <c r="F69">
-        <v>66.40995025634766</v>
+        <v>66.40994262695312</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>72.8365</v>
       </c>
       <c r="F75">
-        <v>68.68858337402344</v>
+        <v>68.68856811523438</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>64.7649</v>
       </c>
       <c r="F76">
-        <v>68.46106719970703</v>
+        <v>68.46107482910156</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>82.36839999999999</v>
       </c>
       <c r="F78">
-        <v>66.08319091796875</v>
+        <v>66.08318328857422</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>40.0889</v>
       </c>
       <c r="F79">
-        <v>59.88030242919922</v>
+        <v>59.88031005859375</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>59.0528</v>
       </c>
       <c r="F82">
-        <v>69.83849334716797</v>
+        <v>69.83848571777344</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>88.9012</v>
       </c>
       <c r="F83">
-        <v>69.79432678222656</v>
+        <v>69.79431915283203</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>65.8325</v>
       </c>
       <c r="F90">
-        <v>72.08502197265625</v>
+        <v>72.08501434326172</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5769</v>
       </c>
       <c r="F91">
-        <v>66.23287200927734</v>
+        <v>66.23287963867188</v>
       </c>
     </row>
     <row r="92" spans="1:6">
